--- a/biology/Zoologie/Arctornis/Arctornis.xlsx
+++ b/biology/Zoologie/Arctornis/Arctornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctornis est un genre de lépidoptères (papillons) de la famille des Erebidae, de la sous-famille des Lymantriinae et de la tribu des Arctornithini.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ce genre dans l'écozone paléarctique. 
 </t>
@@ -568,19 +584,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Arctornis a été décrit par l’entomologiste allemand Ernst Friedrich Germar en 1810 [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arctornis a été décrit par l’entomologiste allemand Ernst Friedrich Germar en 1810 .
 Son espèce type est Arctornis l-nigrum (Müller, 1764)
-Synonymie
-Scarpona Walker, 1862 [2]
-Cassidia Walker, 1862[3]
-Chatracharta Walker, 1862[4]
-Ciaca Walker, 1865[5]
-Topomesa Walker, 1866[6]
-Cobanilla Moore, 1883[7]
-Kanchia Moore, 1883[8]
-Lymantralex Collenette, 1938[9]</t>
+</t>
         </is>
       </c>
     </row>
@@ -605,10 +615,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scarpona Walker, 1862 
+Cassidia Walker, 1862
+Chatracharta Walker, 1862
+Ciaca Walker, 1865
+Topomesa Walker, 1866
+Cobanilla Moore, 1883
+Kanchia Moore, 1883
+Lymantralex Collenette, 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arctornis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arctornis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arctornis alba (Bremer, 1861)
